--- a/rhla_analysis/rhla1_3_zipf_result/k9.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k9.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4339389777158745</v>
+        <v>0.4339389777158747</v>
       </c>
       <c r="B2" t="n">
         <v>45.0550752119394</v>
@@ -466,12 +466,12 @@
         <v>0.1457800511508952</v>
       </c>
       <c r="D2" t="n">
-        <v>103.8281360413759</v>
+        <v>103.8281360413758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1384222398450857</v>
+        <v>0.1384222398450866</v>
       </c>
       <c r="B3" t="n">
         <v>22.27088932548186</v>
@@ -480,12 +480,12 @@
         <v>0.1679454390451833</v>
       </c>
       <c r="D3" t="n">
-        <v>160.8909764096158</v>
+        <v>160.8909764096148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4108706357814764</v>
+        <v>0.4108706357814732</v>
       </c>
       <c r="B4" t="n">
         <v>32.2763031067839</v>
@@ -494,7 +494,7 @@
         <v>0.1730605285592498</v>
       </c>
       <c r="D4" t="n">
-        <v>78.55587694991719</v>
+        <v>78.55587694991779</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>0.1776286725322248</v>
       </c>
       <c r="B5" t="n">
-        <v>24.48457609811991</v>
+        <v>24.48457609811992</v>
       </c>
       <c r="C5" t="n">
         <v>0.1530264279624893</v>
       </c>
       <c r="D5" t="n">
-        <v>137.8413504366982</v>
+        <v>137.8413504366983</v>
       </c>
     </row>
     <row r="6">
@@ -522,12 +522,12 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="D6" t="n">
-        <v>85.30080855776305</v>
+        <v>85.30080855776301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.09935795301338363</v>
+        <v>0.09935795301338322</v>
       </c>
       <c r="B7" t="n">
         <v>14.39573232036038</v>
@@ -536,12 +536,12 @@
         <v>0.1743393009377664</v>
       </c>
       <c r="D7" t="n">
-        <v>144.8875694774152</v>
+        <v>144.8875694774158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.222372115625521</v>
+        <v>3.222372115625523</v>
       </c>
       <c r="B8" t="n">
         <v>159.0991451185388</v>
@@ -550,26 +550,26 @@
         <v>0.1581415174765558</v>
       </c>
       <c r="D8" t="n">
-        <v>49.37329998203972</v>
+        <v>49.37329998203969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3773606000718556</v>
+        <v>0.3773606000718541</v>
       </c>
       <c r="B9" t="n">
-        <v>44.08576600354156</v>
+        <v>44.08576600354155</v>
       </c>
       <c r="C9" t="n">
         <v>0.1466325660699062</v>
       </c>
       <c r="D9" t="n">
-        <v>116.8266268262954</v>
+        <v>116.8266268262958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8104488280737093</v>
+        <v>0.8104488280737058</v>
       </c>
       <c r="B10" t="n">
         <v>37.66305901503674</v>
@@ -578,21 +578,21 @@
         <v>0.155157715260017</v>
       </c>
       <c r="D10" t="n">
-        <v>46.47185326253729</v>
+        <v>46.4718532625375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1945250144404797</v>
+        <v>0.1945250144404804</v>
       </c>
       <c r="B11" t="n">
-        <v>41.06877679755448</v>
+        <v>41.06877679755447</v>
       </c>
       <c r="C11" t="n">
         <v>0.1568627450980392</v>
       </c>
       <c r="D11" t="n">
-        <v>211.1233710259952</v>
+        <v>211.1233710259944</v>
       </c>
     </row>
   </sheetData>
